--- a/Stationwise Manpower & Multi-Skilled Deplyoment For Dasboardx.xlsx
+++ b/Stationwise Manpower & Multi-Skilled Deplyoment For Dasboardx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5292ff70b3a90aeb/Desktop/Compal Attendance Dashboard/OP-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{81A274D0-AA74-4979-88E2-A5D1504B8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D7F3A29-4823-4A42-9B47-826596190F95}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{81A274D0-AA74-4979-88E2-A5D1504B8777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6572D1A-9D37-4136-AD53-0F9DFCD1D6AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="409">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1266,15 +1266,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="m/d"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="171" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="172" formatCode="mm\-dd\-yyyy"/>
-    <numFmt numFmtId="173" formatCode="d\-m\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="170" formatCode="mm\-dd\-yyyy"/>
+    <numFmt numFmtId="171" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1447,6 +1447,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1626,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,7 +1683,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1715,7 +1722,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1781,7 +1788,7 @@
     <xf numFmtId="164" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1836,16 +1843,16 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,7 +1873,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,16 +1885,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,7 +1913,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,59 +1937,59 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1994,7 +2001,7 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2028,10 +2035,10 @@
     <xf numFmtId="164" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2049,16 +2056,16 @@
     <xf numFmtId="14" fontId="25" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,13 +2077,13 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,26 +2101,26 @@
     <xf numFmtId="164" fontId="24" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,10 +2135,10 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2143,36 +2150,48 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8281,7 +8300,7 @@
 </file>
 
 <file path=xl/tables/table140.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="255" xr:uid="{00000000-000C-0000-FFFF-FFFFFE000000}" name="Table_255" displayName="Table_255" ref="I87:L88" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="255" xr:uid="{00000000-000C-0000-FFFF-FFFFFE000000}" name="Table_255" displayName="Table_255" ref="I87:L89" headerRowCount="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-FE00-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-FE00-000002000000}" name="Column2"/>
@@ -9855,10 +9874,10 @@
       <c r="A3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="183" t="s">
         <v>172</v>
       </c>
       <c r="D3" s="185">
@@ -9891,9 +9910,9 @@
     </row>
     <row r="4" spans="1:12" ht="14.4">
       <c r="A4" s="12"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="6" t="s">
         <v>175</v>
       </c>
@@ -13433,8 +13452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AQ573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -13478,126 +13497,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="33" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="191" t="s">
+      <c r="I1" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="189"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="188"/>
       <c r="M1" s="25"/>
-      <c r="N1" s="191" t="s">
+      <c r="N1" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="189"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="188"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="191" t="s">
+      <c r="S1" s="186" t="s">
         <v>200</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="189"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="188"/>
       <c r="W1" s="25"/>
-      <c r="X1" s="191" t="s">
+      <c r="X1" s="186" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="189"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="188"/>
       <c r="AB1" s="25"/>
-      <c r="AC1" s="191" t="s">
+      <c r="AC1" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="189"/>
-      <c r="AH1" s="191" t="s">
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="191" t="s">
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="187"/>
+      <c r="AK1" s="187"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="189"/>
+      <c r="AN1" s="187"/>
+      <c r="AO1" s="187"/>
+      <c r="AP1" s="187"/>
+      <c r="AQ1" s="188"/>
     </row>
     <row r="2" spans="1:43" ht="14.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="192" t="s">
+      <c r="D2" s="189" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="192" t="s">
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="189" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190">
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="191">
         <v>45979</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="190">
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="191">
         <v>45979</v>
       </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="190">
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="191">
         <v>45979</v>
       </c>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="192" t="s">
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="189" t="s">
         <v>292</v>
       </c>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="192" t="s">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="189" t="s">
         <v>292</v>
       </c>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="188"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="192" t="s">
+      <c r="AI2" s="187"/>
+      <c r="AJ2" s="187"/>
+      <c r="AK2" s="187"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="189" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="188"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="189"/>
+      <c r="AN2" s="187"/>
+      <c r="AO2" s="187"/>
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="188"/>
     </row>
     <row r="3" spans="1:43" ht="69.599999999999994">
       <c r="A3" s="2" t="s">
@@ -20185,10 +20204,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I89" s="137"/>
-      <c r="J89" s="137"/>
-      <c r="K89" s="144"/>
-      <c r="L89" s="149"/>
+      <c r="I89" s="193" t="s">
+        <v>359</v>
+      </c>
+      <c r="J89" s="196">
+        <v>363251</v>
+      </c>
+      <c r="K89" s="194"/>
+      <c r="L89" s="195"/>
       <c r="M89" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24390,7 +24413,7 @@
       <c r="AQ138" s="104"/>
     </row>
     <row r="139" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A139" s="186" t="s">
+      <c r="A139" s="192" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="16" t="s">
@@ -24466,7 +24489,7 @@
       <c r="AQ139" s="104"/>
     </row>
     <row r="140" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A140" s="183"/>
+      <c r="A140" s="184"/>
       <c r="B140" s="16" t="s">
         <v>157</v>
       </c>
@@ -30639,11 +30662,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A139:A140"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AH2:AL2"/>
@@ -30655,12 +30674,15 @@
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AC1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="161">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -30821,6 +30843,7 @@
     <tablePart r:id="rId159"/>
     <tablePart r:id="rId160"/>
     <tablePart r:id="rId161"/>
+    <tablePart r:id="rId162"/>
   </tableParts>
 </worksheet>
 </file>